--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3572.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3572.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.165164054421595</v>
+        <v>4.838080883026123</v>
       </c>
       <c r="B1">
-        <v>1.768916683824777</v>
+        <v>2.677904367446899</v>
       </c>
       <c r="C1">
-        <v>3.933130781002927</v>
+        <v>1.942438125610352</v>
       </c>
       <c r="D1">
-        <v>4.275435387248307</v>
+        <v>1.790980815887451</v>
       </c>
       <c r="E1">
-        <v>1.128512618591965</v>
+        <v>1.788223385810852</v>
       </c>
     </row>
   </sheetData>
